--- a/WahoClient/wwwroot/BillDetail.xlsx
+++ b/WahoClient/wwwroot/BillDetail.xlsx
@@ -12,57 +12,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Mã hoá đơn :</t>
-  </si>
-  <si>
-    <t>Người tạo :</t>
-  </si>
-  <si>
-    <t>Nguyễn Tùng Lâm</t>
-  </si>
-  <si>
-    <t>Ngày tạo :</t>
-  </si>
-  <si>
-    <t>3/19/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>Tình trạng :</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Mã hoá đơn:</t>
+  </si>
+  <si>
+    <t>Tên khách hàng:</t>
+  </si>
+  <si>
+    <t>thu 4</t>
+  </si>
+  <si>
+    <t>Người tạo:</t>
+  </si>
+  <si>
+    <t>Trần Văn Đức</t>
+  </si>
+  <si>
+    <t>Số điện thoại:</t>
+  </si>
+  <si>
+    <t>0998888888</t>
+  </si>
+  <si>
+    <t>Ngày tạo:</t>
+  </si>
+  <si>
+    <t>7/17/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>thunt@gmail.com</t>
+  </si>
+  <si>
+    <t>Tình trạng:</t>
   </si>
   <si>
     <t>Đã xong</t>
   </si>
   <si>
+    <t>Mã thuế:</t>
+  </si>
+  <si>
+    <t>099999</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ghi chú: </t>
   </si>
   <si>
+    <t>Mã sản phẩm</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Giảm giá(%)</t>
+  </si>
+  <si>
+    <t>Đơn giá(đ)</t>
+  </si>
+  <si>
+    <t>Tồn kho</t>
+  </si>
+  <si>
+    <t>Phông Hồng</t>
+  </si>
+  <si>
+    <t>Phông Xám</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tổng giá tiền: </t>
-  </si>
-  <si>
-    <t>Mã sản phẩm</t>
-  </si>
-  <si>
-    <t>Tên sản phẩm</t>
-  </si>
-  <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
-    <t>Giảm giá(%)</t>
-  </si>
-  <si>
-    <t>Đơn giá(đ)</t>
-  </si>
-  <si>
-    <t>Tồn kho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Áo Khoác hồng </t>
-  </si>
-  <si>
-    <t>áo Tshirt ong mật ver 2</t>
   </si>
 </sst>
 </file>
@@ -108,7 +132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -119,104 +143,128 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0">
-        <v>1580000</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
+      <c r="A8" s="0">
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" s="0">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0">
+        <v>150000</v>
+      </c>
+      <c r="F8" s="0">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="F9" s="0">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>61</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="0">
-        <v>2</v>
-      </c>
-      <c r="D10" s="0">
-        <v>2</v>
-      </c>
-      <c r="E10" s="0">
-        <v>200000</v>
-      </c>
-      <c r="F10" s="0">
-        <v>100</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="0">
+        <v>8167500</v>
       </c>
     </row>
   </sheetData>

--- a/WahoClient/wwwroot/BillDetail.xlsx
+++ b/WahoClient/wwwroot/BillDetail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Mã hoá đơn:</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Tên khách hàng:</t>
   </si>
   <si>
-    <t>thu 4</t>
+    <t>Phan Quan</t>
   </si>
   <si>
     <t>Người tạo:</t>
@@ -32,31 +32,31 @@
     <t>Số điện thoại:</t>
   </si>
   <si>
-    <t>0998888888</t>
+    <t>0955555585</t>
   </si>
   <si>
     <t>Ngày tạo:</t>
   </si>
   <si>
-    <t>7/17/2023 12:00:00 AM</t>
+    <t>20/6/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>Email:</t>
   </si>
   <si>
-    <t>thunt@gmail.com</t>
+    <t>quan@gmail.com</t>
   </si>
   <si>
     <t>Tình trạng:</t>
   </si>
   <si>
-    <t>Đã xong</t>
+    <t>Đã thanh toán</t>
   </si>
   <si>
     <t>Mã thuế:</t>
   </si>
   <si>
-    <t>099999</t>
+    <t>9898</t>
   </si>
   <si>
     <t xml:space="preserve">Ghi chú: </t>
@@ -80,10 +80,13 @@
     <t>Tồn kho</t>
   </si>
   <si>
-    <t>Phông Hồng</t>
-  </si>
-  <si>
-    <t>Phông Xám</t>
+    <t>Phông trơn</t>
+  </si>
+  <si>
+    <t>Phông xanh dương</t>
+  </si>
+  <si>
+    <t>Phông xanh lá</t>
   </si>
   <si>
     <t xml:space="preserve">Tổng giá tiền: </t>
@@ -132,7 +135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -143,7 +146,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
@@ -221,50 +224,70 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="0">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D8" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0">
         <v>150000</v>
       </c>
       <c r="F8" s="0">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="0">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0">
         <v>150000</v>
       </c>
       <c r="F9" s="0">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="0">
-        <v>8167500</v>
+      <c r="C10" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0">
+        <v>150000</v>
+      </c>
+      <c r="F10" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/WahoClient/wwwroot/BillDetail.xlsx
+++ b/WahoClient/wwwroot/BillDetail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Mã hoá đơn:</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Tên khách hàng:</t>
   </si>
   <si>
-    <t>Phan Quan</t>
+    <t>thu 4</t>
   </si>
   <si>
     <t>Người tạo:</t>
@@ -32,19 +32,19 @@
     <t>Số điện thoại:</t>
   </si>
   <si>
-    <t>0955555585</t>
+    <t>0998888888</t>
   </si>
   <si>
     <t>Ngày tạo:</t>
   </si>
   <si>
-    <t>20/6/2023 12:00:00 AM</t>
+    <t>18/7/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>Email:</t>
   </si>
   <si>
-    <t>quan@gmail.com</t>
+    <t>thunt@gmail.com</t>
   </si>
   <si>
     <t>Tình trạng:</t>
@@ -56,7 +56,7 @@
     <t>Mã thuế:</t>
   </si>
   <si>
-    <t>9898</t>
+    <t>099999</t>
   </si>
   <si>
     <t xml:space="preserve">Ghi chú: </t>
@@ -80,13 +80,10 @@
     <t>Tồn kho</t>
   </si>
   <si>
-    <t>Phông trơn</t>
-  </si>
-  <si>
-    <t>Phông xanh dương</t>
-  </si>
-  <si>
-    <t>Phông xanh lá</t>
+    <t>test create</t>
+  </si>
+  <si>
+    <t>test create 2 update</t>
   </si>
   <si>
     <t xml:space="preserve">Tổng giá tiền: </t>
@@ -135,7 +132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -146,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
@@ -224,70 +221,50 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" s="0">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="F8" s="0">
-        <v>89</v>
+        <v>988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0">
         <v>10</v>
       </c>
       <c r="E9" s="0">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="F9" s="0">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>4</v>
-      </c>
-      <c r="B10" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="0">
-        <v>2</v>
-      </c>
-      <c r="D10" s="0">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0">
-        <v>150000</v>
-      </c>
-      <c r="F10" s="0">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="0">
-        <v>1000000</v>
+      <c r="F11" s="0">
+        <v>520000</v>
       </c>
     </row>
   </sheetData>
